--- a/employee_record.xlsx
+++ b/employee_record.xlsx
@@ -35,12 +35,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9E1F2"/>
-        <bgColor rgb="00D9E1F2"/>
+        <fgColor rgb="008B909B"/>
+        <bgColor rgb="008B909B"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,16 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +445,18 @@
           <t>직원 인사 기록 카드</t>
         </is>
       </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,19 +474,25 @@
           <t>국적</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>기능인 등급</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="n"/>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>중급</t>
         </is>
       </c>
       <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>생년월일</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,496 +505,1086 @@
           <t>서우/건설/골조/형틀 파트</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>한 글</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>최봉철</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
       <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>공법</t>
+          <t>여권번호</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>현장명</t>
+          <t>xxx</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>기간</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>공수</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>소속 총괄</t>
-        </is>
-      </c>
+          <t>한 자</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>기능도</t>
+          <t>비자</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>총괄 경험</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>목표공수 달성(%)</t>
-        </is>
-      </c>
+          <t>F-4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>휴대폰</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>재래식</t>
+          <t>기초안전보건교육이수증</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>인천광역시 서구 청라동 6-7, 6-8번지</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2023.01~2023.11</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>김태훈</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>75</v>
-      </c>
+          <t>영 문</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>직종</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>비상연락처</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>갱폼</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>정동근</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>60</v>
-      </c>
+          <t>주민등록번호</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>123456-7891111</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>주소</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>서울시</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>테이블</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>이운호</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>70</v>
-      </c>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>경력 및 기능도</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>RCS</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr"/>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+          <t>공법</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>현장명</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>기간</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>정문학</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
+          <t>소속 총괄</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>기능도</t>
+        </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>60</v>
-      </c>
+          <t>총괄 경험</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>목표공수 달성(%)</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>알폼</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
+          <t>재래식</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>인천광역시 서구 청라동 6-7, 6-8번지</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2023.01~2023.11</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>김태훈</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>有</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>직무 경력 및 한줄 평가</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
+          <t>갱폼</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>정동근</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>공법</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>현장명</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>종합건설사</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>전문건설사</t>
-        </is>
-      </c>
+          <t>테이블</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>총괄</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>원청 관리자</t>
-        </is>
+          <t>이운호</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>하청 관리자</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>평가</t>
-        </is>
-      </c>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>재래식</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
+          <t>RCS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>정문학</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>자격증</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
+          <t>알폼</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>장동민</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>발급 날짜</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>종류</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>발급 기관</t>
-        </is>
-      </c>
+      <c r="A14" s="2" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>20220908</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>직무 경력 및 한줄 평가</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>교육 훈련 경력</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
+          <t>공법</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>현장명</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>종합건설사</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>전문건설사</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>총괄</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>원청 관리자</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>하청 관리자</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>평가</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>발급 날짜</t>
+          <t>재래식</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>종류</t>
+          <t>인천광역시 서구 청라동 6-7, 6-8번지</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>발급 기관</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>휘강</t>
+        </is>
+      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
+          <t>김태훈</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>20170703</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr"/>
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>(주)서우 전문 건설 교육</t>
-        </is>
-      </c>
+      <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>기능인 등급</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>발급 날짜</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
+      <c r="A21" s="2" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>20230708</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>형틀 기능공 중급</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>사단법인 한국건설기능인협회</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2023-465-65452</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>상세평가</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>비자 갱신 기록</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>시공위치</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>기술</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>품질</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>인성(간단한 서술)</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>발급 날짜</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>종류</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>발급 기관</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>특이사항</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>자격증</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>발급 날짜</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>종류</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>발급 기관</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>20220908</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>거푸집 기능사 국가기술자격증</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>한국산업인력공단</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>22403651128J</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>교육 훈련 경력</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>발급 날짜</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>종류</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>발급 기관</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>20170703</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>건설업 기초안전보건교육 이수증</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>㈜경인건설안전교육원</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2017-108-23467</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>기능인 등급</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>발급 날짜</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>종류</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>발급 기관</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>20230708</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>형틀 기능공 중급</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>사단법인 한국건설기능인협회</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>2023-465-65452</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>비자 갱신 기록</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>발급 날짜</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>종류</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>발급 기관</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>특이사항</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr"/>
+      <c r="B41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A15:H15"/>
+  <mergeCells count="67">
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="L2:M6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E34:M34"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="E35:M35"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="E37:M37"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="A33:M33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
